--- a/output/robot_printerserver_all_printers.xlsx
+++ b/output/robot_printerserver_all_printers.xlsx
@@ -38114,12 +38114,7 @@
       </c>
       <c r="O571" t="inlineStr">
         <is>
-          <t>Brother HL-L6250DN</t>
-        </is>
-      </c>
-      <c r="P571" t="inlineStr">
-        <is>
-          <t>Brother HL-6250DN series</t>
+          <t>Unkown</t>
         </is>
       </c>
       <c r="Q571" t="n">
